--- a/biology/Botanique/Liste_des_familles_d'angiospermes_présentes_en_Nouvelle-Calédonie_par_ordre_alphabétique/Liste_des_familles_d'angiospermes_présentes_en_Nouvelle-Calédonie_par_ordre_alphabétique.xlsx
+++ b/biology/Botanique/Liste_des_familles_d'angiospermes_présentes_en_Nouvelle-Calédonie_par_ordre_alphabétique/Liste_des_familles_d'angiospermes_présentes_en_Nouvelle-Calédonie_par_ordre_alphabétique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_familles_d%27angiospermes_pr%C3%A9sentes_en_Nouvelle-Cal%C3%A9donie_par_ordre_alphab%C3%A9tique</t>
+          <t>Liste_des_familles_d'angiospermes_présentes_en_Nouvelle-Calédonie_par_ordre_alphabétique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette liste, travaillée à partir du site endemia, est un document de travail destiné à faciliter le transfert d'information entre wikipédia et endemia.
 Sommaire :
@@ -520,7 +532,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_familles_d%27angiospermes_pr%C3%A9sentes_en_Nouvelle-Cal%C3%A9donie_par_ordre_alphab%C3%A9tique</t>
+          <t>Liste_des_familles_d'angiospermes_présentes_en_Nouvelle-Calédonie_par_ordre_alphabétique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -538,7 +550,9 @@
           <t>A</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Acanthaceae * Aizoaceae * Alangiaceae * Alseuosmiaceae * Amaryllidaceae * Amborellaceae * Anacardiaceae * Annonaceae * Apocynaceae * Aquifoliaceae * Araceae * Araliaceae * Asclepiadaceae * Atherospermataceae * Avicenniaceae
 </t>
@@ -551,7 +565,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_familles_d%27angiospermes_pr%C3%A9sentes_en_Nouvelle-Cal%C3%A9donie_par_ordre_alphab%C3%A9tique</t>
+          <t>Liste_des_familles_d'angiospermes_présentes_en_Nouvelle-Calédonie_par_ordre_alphabétique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -569,7 +583,9 @@
           <t>B</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Balanopaceae
 Balanophoraceae
@@ -587,7 +603,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_des_familles_d%27angiospermes_pr%C3%A9sentes_en_Nouvelle-Cal%C3%A9donie_par_ordre_alphab%C3%A9tique</t>
+          <t>Liste_des_familles_d'angiospermes_présentes_en_Nouvelle-Calédonie_par_ordre_alphabétique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -605,7 +621,9 @@
           <t>C</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Caesalpiniaceae
 Callitrichaceae
@@ -639,7 +657,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_des_familles_d%27angiospermes_pr%C3%A9sentes_en_Nouvelle-Cal%C3%A9donie_par_ordre_alphab%C3%A9tique</t>
+          <t>Liste_des_familles_d'angiospermes_présentes_en_Nouvelle-Calédonie_par_ordre_alphabétique</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -657,7 +675,9 @@
           <t>D</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Dilleniaceae
 Dioscoreaceae
@@ -672,7 +692,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liste_des_familles_d%27angiospermes_pr%C3%A9sentes_en_Nouvelle-Cal%C3%A9donie_par_ordre_alphab%C3%A9tique</t>
+          <t>Liste_des_familles_d'angiospermes_présentes_en_Nouvelle-Calédonie_par_ordre_alphabétique</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -690,7 +710,9 @@
           <t>E</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Ebenaceae
 Elaeocarpaceae
@@ -710,7 +732,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Liste_des_familles_d%27angiospermes_pr%C3%A9sentes_en_Nouvelle-Cal%C3%A9donie_par_ordre_alphab%C3%A9tique</t>
+          <t>Liste_des_familles_d'angiospermes_présentes_en_Nouvelle-Calédonie_par_ordre_alphabétique</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -728,7 +750,9 @@
           <t>F</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Flacourtiaceae
 Flagellariaceae
@@ -743,7 +767,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Liste_des_familles_d%27angiospermes_pr%C3%A9sentes_en_Nouvelle-Cal%C3%A9donie_par_ordre_alphab%C3%A9tique</t>
+          <t>Liste_des_familles_d'angiospermes_présentes_en_Nouvelle-Calédonie_par_ordre_alphabétique</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -761,7 +785,9 @@
           <t>G</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Gentianaceae
 Gesneriaceae
@@ -778,7 +804,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Liste_des_familles_d%27angiospermes_pr%C3%A9sentes_en_Nouvelle-Cal%C3%A9donie_par_ordre_alphab%C3%A9tique</t>
+          <t>Liste_des_familles_d'angiospermes_présentes_en_Nouvelle-Calédonie_par_ordre_alphabétique</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -796,7 +822,9 @@
           <t>H</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Haloragidaceae
 Hemerocallidaceae
@@ -814,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Liste_des_familles_d%27angiospermes_pr%C3%A9sentes_en_Nouvelle-Cal%C3%A9donie_par_ordre_alphab%C3%A9tique</t>
+          <t>Liste_des_familles_d'angiospermes_présentes_en_Nouvelle-Calédonie_par_ordre_alphabétique</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -832,7 +860,9 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Icacinaceae
 </t>
@@ -845,7 +875,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Liste_des_familles_d%27angiospermes_pr%C3%A9sentes_en_Nouvelle-Cal%C3%A9donie_par_ordre_alphab%C3%A9tique</t>
+          <t>Liste_des_familles_d'angiospermes_présentes_en_Nouvelle-Calédonie_par_ordre_alphabétique</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -863,7 +893,9 @@
           <t>J</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">Joinvilleaceae
 Juncaceae
@@ -878,7 +910,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Liste_des_familles_d%27angiospermes_pr%C3%A9sentes_en_Nouvelle-Cal%C3%A9donie_par_ordre_alphab%C3%A9tique</t>
+          <t>Liste_des_familles_d'angiospermes_présentes_en_Nouvelle-Calédonie_par_ordre_alphabétique</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -896,7 +928,9 @@
           <t>L</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">Lamiaceae
 Lauraceae
@@ -919,7 +953,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Liste_des_familles_d%27angiospermes_pr%C3%A9sentes_en_Nouvelle-Cal%C3%A9donie_par_ordre_alphab%C3%A9tique</t>
+          <t>Liste_des_familles_d'angiospermes_présentes_en_Nouvelle-Calédonie_par_ordre_alphabétique</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -937,7 +971,9 @@
           <t>M</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t xml:space="preserve">Malpighiaceae
 Malvaceae
@@ -963,7 +999,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Liste_des_familles_d%27angiospermes_pr%C3%A9sentes_en_Nouvelle-Cal%C3%A9donie_par_ordre_alphab%C3%A9tique</t>
+          <t>Liste_des_familles_d'angiospermes_présentes_en_Nouvelle-Calédonie_par_ordre_alphabétique</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -981,7 +1017,9 @@
           <t>N</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t xml:space="preserve">Najadaceae
 Nepenthaceae
@@ -997,7 +1035,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Liste_des_familles_d%27angiospermes_pr%C3%A9sentes_en_Nouvelle-Cal%C3%A9donie_par_ordre_alphab%C3%A9tique</t>
+          <t>Liste_des_familles_d'angiospermes_présentes_en_Nouvelle-Calédonie_par_ordre_alphabétique</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1015,7 +1053,9 @@
           <t>O</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t xml:space="preserve">Orchidaceae
 Olacaceae
@@ -1033,7 +1073,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Liste_des_familles_d%27angiospermes_pr%C3%A9sentes_en_Nouvelle-Cal%C3%A9donie_par_ordre_alphab%C3%A9tique</t>
+          <t>Liste_des_familles_d'angiospermes_présentes_en_Nouvelle-Calédonie_par_ordre_alphabétique</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1051,7 +1091,9 @@
           <t>P</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t xml:space="preserve">Palmae
 Pandanaceae
@@ -1080,7 +1122,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Liste_des_familles_d%27angiospermes_pr%C3%A9sentes_en_Nouvelle-Cal%C3%A9donie_par_ordre_alphab%C3%A9tique</t>
+          <t>Liste_des_familles_d'angiospermes_présentes_en_Nouvelle-Calédonie_par_ordre_alphabétique</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1098,7 +1140,9 @@
           <t>R</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t xml:space="preserve">Ranunculaceae
 Rhamnaceae
@@ -1116,7 +1160,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Liste_des_familles_d%27angiospermes_pr%C3%A9sentes_en_Nouvelle-Cal%C3%A9donie_par_ordre_alphab%C3%A9tique</t>
+          <t>Liste_des_familles_d'angiospermes_présentes_en_Nouvelle-Calédonie_par_ordre_alphabétique</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1134,7 +1178,9 @@
           <t>S</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t xml:space="preserve">Santalaceae * Sapindaceae * Sapotaceae * Saxifragaceae * Scrophulariaceae * Simaroubaceae * Smilacaceae * Solanaceae * Sonneratiaceae * Sphenostemonaceae * Stemonuraceae * Strasburgeriaceae * Surianaceae * Symplocaceae
 </t>
@@ -1147,7 +1193,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Liste_des_familles_d%27angiospermes_pr%C3%A9sentes_en_Nouvelle-Cal%C3%A9donie_par_ordre_alphab%C3%A9tique</t>
+          <t>Liste_des_familles_d'angiospermes_présentes_en_Nouvelle-Calédonie_par_ordre_alphabétique</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1165,7 +1211,9 @@
           <t>T</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t xml:space="preserve">Taccaceae * Thymelaeaceae * Tiliaceae * Trimeniaceae * Triuridaceae * Typhaceae
 </t>
@@ -1178,7 +1226,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Liste_des_familles_d%27angiospermes_pr%C3%A9sentes_en_Nouvelle-Cal%C3%A9donie_par_ordre_alphab%C3%A9tique</t>
+          <t>Liste_des_familles_d'angiospermes_présentes_en_Nouvelle-Calédonie_par_ordre_alphabétique</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1196,7 +1244,9 @@
           <t>U</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t xml:space="preserve">Ulmaceae * Umbelliferae * Urticaceae
 </t>
@@ -1209,7 +1259,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Liste_des_familles_d%27angiospermes_pr%C3%A9sentes_en_Nouvelle-Cal%C3%A9donie_par_ordre_alphab%C3%A9tique</t>
+          <t>Liste_des_familles_d'angiospermes_présentes_en_Nouvelle-Calédonie_par_ordre_alphabétique</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1227,7 +1277,9 @@
           <t>V</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
         <is>
           <t xml:space="preserve">Verbenaceae * Violaceae * Viscaceae * Vitaceae
 </t>
@@ -1240,7 +1292,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Liste_des_familles_d%27angiospermes_pr%C3%A9sentes_en_Nouvelle-Cal%C3%A9donie_par_ordre_alphab%C3%A9tique</t>
+          <t>Liste_des_familles_d'angiospermes_présentes_en_Nouvelle-Calédonie_par_ordre_alphabétique</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1258,7 +1310,9 @@
           <t>W</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
         <is>
           <t xml:space="preserve">Winteraceae
 </t>
@@ -1271,7 +1325,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Liste_des_familles_d%27angiospermes_pr%C3%A9sentes_en_Nouvelle-Cal%C3%A9donie_par_ordre_alphab%C3%A9tique</t>
+          <t>Liste_des_familles_d'angiospermes_présentes_en_Nouvelle-Calédonie_par_ordre_alphabétique</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1289,7 +1343,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
         <is>
           <t xml:space="preserve">Xeronemataceae * Xyridaceae
 </t>
@@ -1302,7 +1358,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Liste_des_familles_d%27angiospermes_pr%C3%A9sentes_en_Nouvelle-Cal%C3%A9donie_par_ordre_alphab%C3%A9tique</t>
+          <t>Liste_des_familles_d'angiospermes_présentes_en_Nouvelle-Calédonie_par_ordre_alphabétique</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1320,7 +1376,9 @@
           <t>Z</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
         <is>
           <t xml:space="preserve">Zygophyllaceae
 Références
